--- a/Data/EC/NIT-9008128757.xlsx
+++ b/Data/EC/NIT-9008128757.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B262FDA5-AEB5-4B5B-95E7-DCF23B7EC553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6E6054-B3E4-42BD-B548-9F20CC8A8EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{428B3403-B2D1-49F9-A33A-9912A2EF2601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6D0974E-773A-442C-91D8-033F1B89CFEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="125">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,310 +71,313 @@
     <t>HERNAN HENAO RAMIREZ</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
     <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -788,7 +791,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD0BED9-D830-27BE-56A2-324731472479}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C441F0-B90D-4857-EA73-A32F000544C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,8 +1142,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BFE5F5-C892-49DA-A6DD-06527A1449CA}">
-  <dimension ref="B2:J123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE18A4A0-E731-415C-9511-33097CBD9284}">
+  <dimension ref="B2:J124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1164,7 +1167,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1209,7 +1212,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1241,12 +1244,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>55793417</v>
+        <v>56344917</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1257,17 +1260,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F13" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1294,13 +1297,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>118</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1317,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>91917</v>
+        <v>551500</v>
       </c>
       <c r="G16" s="18">
         <v>13787500</v>
@@ -3627,42 +3630,54 @@
       <c r="J116" s="20"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="22" t="s">
+      <c r="B117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F117" s="24">
-        <v>551500</v>
-      </c>
-      <c r="G117" s="24">
-        <v>13787500</v>
-      </c>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="26"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" s="32"/>
-      <c r="H122" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="F117" s="18">
+        <v>551500</v>
+      </c>
+      <c r="G117" s="18">
+        <v>13787500</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F118" s="24">
+        <v>91917</v>
+      </c>
+      <c r="G118" s="24">
+        <v>13787500</v>
+      </c>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="26"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C123" s="32"/>
       <c r="H123" s="1" t="s">
@@ -3671,12 +3686,23 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" s="32"/>
+      <c r="H124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B124:C124"/>
     <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="H124:J124"/>
     <mergeCell ref="H123:J123"/>
-    <mergeCell ref="H122:J122"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9008128757.xlsx
+++ b/Data/EC/NIT-9008128757.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6E6054-B3E4-42BD-B548-9F20CC8A8EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF054D8F-728F-4C97-947D-3DD71C3B7D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6D0974E-773A-442C-91D8-033F1B89CFEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5D3C2E4A-1FCF-49F9-A55D-8047C84FB0D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="126">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,313 +71,316 @@
     <t>HERNAN HENAO RAMIREZ</t>
   </si>
   <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -476,7 +479,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -489,9 +494,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -691,23 +694,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,10 +738,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,7 +794,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C441F0-B90D-4857-EA73-A32F000544C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2D90CA-90F7-83E4-6A74-33BF2D0F8174}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,8 +1145,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE18A4A0-E731-415C-9511-33097CBD9284}">
-  <dimension ref="B2:J124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46830EE-5FBD-4E79-8C1D-8BE460083F8B}">
+  <dimension ref="B2:J125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1167,7 +1170,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1212,7 +1215,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1244,12 +1247,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>56344917</v>
+        <v>56896417</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1260,17 +1263,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1297,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1320,7 +1323,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>551500</v>
+        <v>91917</v>
       </c>
       <c r="G16" s="18">
         <v>13787500</v>
@@ -3653,42 +3656,54 @@
       <c r="J117" s="20"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="22" t="s">
+      <c r="B118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F118" s="24">
-        <v>91917</v>
-      </c>
-      <c r="G118" s="24">
-        <v>13787500</v>
-      </c>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="26"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" s="32"/>
-      <c r="H123" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="F118" s="18">
+        <v>551500</v>
+      </c>
+      <c r="G118" s="18">
+        <v>13787500</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F119" s="24">
+        <v>551500</v>
+      </c>
+      <c r="G119" s="24">
+        <v>13787500</v>
+      </c>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="26"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C124" s="32"/>
       <c r="H124" s="1" t="s">
@@ -3697,12 +3712,23 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="32"/>
+      <c r="H125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B125:C125"/>
     <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="H125:J125"/>
     <mergeCell ref="H124:J124"/>
-    <mergeCell ref="H123:J123"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
